--- a/EcommerceTestcases.xlsx
+++ b/EcommerceTestcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kumaran-my.sharepoint.com/personal/dhineshlingam_natarajkumar_kumaran_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{84B0511B-5BB8-46DA-BB38-B9D47F406262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="14_{84B0511B-5BB8-46DA-BB38-B9D47F406262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2676C6-361B-475B-8B6E-79F1D6258C98}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68DB528-29A6-4F12-9061-54E00A0C3DBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>TestData</t>
-  </si>
-  <si>
-    <t>TC_001</t>
   </si>
   <si>
     <t>To Verify if the user is able to navigate registration page from homepage</t>
@@ -81,9 +78,6 @@
     <t>Create new register Account using valid credentials</t>
   </si>
   <si>
-    <t>Invalid Credentials</t>
-  </si>
-  <si>
     <t>Text:Account created Successfully</t>
   </si>
   <si>
@@ -100,6 +94,46 @@
   </si>
   <si>
     <t>1:Verify"First name is required "Error message</t>
+  </si>
+  <si>
+    <t>Tc_003</t>
+  </si>
+  <si>
+    <t>First name should be "empty"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Email </t>
+  </si>
+  <si>
+    <t>Tc_004</t>
+  </si>
+  <si>
+    <t>Moblie number should be "Empty"</t>
+  </si>
+  <si>
+    <t>Password should be "Empty</t>
+  </si>
+  <si>
+    <t>Tc_001</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>1.Url:"https://rahulshettyacademy.com/client/auth/register"
+2.Browser:"Chrome"
+3.RequiredFeild:"Mobile text field should be empty"</t>
+  </si>
+  <si>
+    <t>1.Url:"https://rahulshettyacademy.com/client/auth/register"
+2.Browser:"Chrome"
+3.RequiredFeild:"Password field should be empty"</t>
+  </si>
+  <si>
+    <t>Test_Scenario</t>
+  </si>
+  <si>
+    <t>Create new account</t>
   </si>
 </sst>
 </file>
@@ -155,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,89 +492,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9A0687-68E0-447F-8C88-3FBF91DF715A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="5" width="34.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="1" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" customWidth="1"/>
+    <col min="5" max="6" width="34.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -553,15 +660,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005562E6B46DBC6C4D9A41C29294934CD2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac85a7bebc27f50eee19708376607813">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d9c0b41f-68ce-4836-923e-9206702a397f" xmlns:ns4="29e359a8-23c1-494d-9991-3f24111906f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f83d03a0edf6b693e9055ac96ed1084" ns3:_="" ns4:_="">
     <xsd:import namespace="d9c0b41f-68ce-4836-923e-9206702a397f"/>
@@ -796,6 +894,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EB14F86-737C-4A9C-B4AB-7B8ACB511A81}">
   <ds:schemaRefs>
@@ -814,14 +921,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9D9FBB-7BA0-4640-9BA7-BC2FA50AA6F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9439078E-4867-4D30-9EAA-026B3C8A4296}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -838,4 +937,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9D9FBB-7BA0-4640-9BA7-BC2FA50AA6F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>